--- a/TESIS/3. Marco Teórico/Indice tentativo.xlsx
+++ b/TESIS/3. Marco Teórico/Indice tentativo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\Universidad\1. Proyecto de graduación I\TESIS\3. Marco Teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{365588ED-2AC7-4F14-9255-E6BB2DE7C37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869AFAE-3B0B-445D-B18F-57B386C4BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,44 +36,1016 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="326">
   <si>
     <t>Tienda de Ropa Niche</t>
   </si>
   <si>
-    <t>A que se dedica</t>
-  </si>
-  <si>
     <t>Ubicación</t>
   </si>
   <si>
     <t>Historia</t>
   </si>
   <si>
-    <t>Vision</t>
-  </si>
-  <si>
-    <t>Mision</t>
-  </si>
-  <si>
     <t>Horarios de atención</t>
   </si>
   <si>
-    <t>Ventas en linea</t>
-  </si>
-  <si>
-    <t>Que es una venta</t>
-  </si>
-  <si>
     <t>Tipos de ventas</t>
+  </si>
+  <si>
+    <t>Nivel I</t>
+  </si>
+  <si>
+    <t>Nivel II</t>
+  </si>
+  <si>
+    <t>Nivel III</t>
+  </si>
+  <si>
+    <t>Nivel IV</t>
+  </si>
+  <si>
+    <t>Capítulo II - Marco conceptual de la investigación</t>
+  </si>
+  <si>
+    <t>A qué se dedica</t>
+  </si>
+  <si>
+    <t>Visión</t>
+  </si>
+  <si>
+    <t>Misión</t>
+  </si>
+  <si>
+    <t>Mercado que atiende</t>
+  </si>
+  <si>
+    <t>Ventas</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/ventas.html</t>
+  </si>
+  <si>
+    <t>https://www.zendesk.com.mx/blog/tipos-de-ventas/</t>
+  </si>
+  <si>
+    <t>Venta directa</t>
+  </si>
+  <si>
+    <t>Venta indirecta</t>
+  </si>
+  <si>
+    <t>Venta cruzada</t>
+  </si>
+  <si>
+    <t>Venta adicional</t>
+  </si>
+  <si>
+    <t>Venta inbound</t>
+  </si>
+  <si>
+    <t>Venta outbound</t>
+  </si>
+  <si>
+    <t>Venta en línea</t>
+  </si>
+  <si>
+    <t>Venta en persona</t>
+  </si>
+  <si>
+    <t>Venta Social</t>
+  </si>
+  <si>
+    <t>Tipos de ventas en línea</t>
+  </si>
+  <si>
+    <t>Redes sociales</t>
+  </si>
+  <si>
+    <t>Marketplaces</t>
+  </si>
+  <si>
+    <t>Tienda ecommerce</t>
+  </si>
+  <si>
+    <t>https://academia.crandi.com/ventas-online/formas-de-vender-por-internet/</t>
+  </si>
+  <si>
+    <t>Formas de ventas en una tienda ecommerce</t>
+  </si>
+  <si>
+    <t>B2C</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>C2B</t>
+  </si>
+  <si>
+    <t>C2C</t>
+  </si>
+  <si>
+    <t>B2A</t>
+  </si>
+  <si>
+    <t>C2A</t>
+  </si>
+  <si>
+    <t>https://www.ingeniovirtual.com/tipos-de-tiendas-online-segun-sus-caracteristicas/</t>
+  </si>
+  <si>
+    <t>Incremento de ventas</t>
+  </si>
+  <si>
+    <t>Que es incremento</t>
+  </si>
+  <si>
+    <t>Definición de incremento de ventas</t>
+  </si>
+  <si>
+    <t>https://incrementodeventas.blogspot.com/2007/07/el-incremento-de-ventas.html</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/incremento.html</t>
+  </si>
+  <si>
+    <t>https://mx.godaddy.com/blog/como-vender-por-internet-guia-para-principiantes/</t>
+  </si>
+  <si>
+    <t>Medición de incremento de ventas</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.es/sales/crecimiento-ventas</t>
+  </si>
+  <si>
+    <t>Estrategias para el incremento de ventas</t>
+  </si>
+  <si>
+    <t>Mejorar servicio al cliente</t>
+  </si>
+  <si>
+    <t>Utilizar firma electrónica</t>
+  </si>
+  <si>
+    <t>https://www.docusign.mx/blog/estrategias-para-aumentar-las-ventas</t>
+  </si>
+  <si>
+    <t>Vender beneficio no caracteristicas</t>
+  </si>
+  <si>
+    <t>Utilización de KPI de ventas</t>
+  </si>
+  <si>
+    <t>https://rockcontent.com/es/blog/kpis-de-ventas/</t>
+  </si>
+  <si>
+    <t>Expansión de Mercado</t>
+  </si>
+  <si>
+    <t>https://diccionarioactual.com/expansion/</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/mercado.html</t>
+  </si>
+  <si>
+    <t>https://www.promonegocios.net/mercadotecnia/mercado-definicion-concepto.html#:~:text=Para%20Philip%20Kotler%2C%20Gary%20Armstrong,de%20intercambio%22%20%5B5%5D.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición expansión </t>
+  </si>
+  <si>
+    <t>Definición de mercado</t>
+  </si>
+  <si>
+    <t>Qué es la expansión de mercado</t>
+  </si>
+  <si>
+    <t>https://www.ekon.es/blog/estrategias-expansion-mercado/</t>
+  </si>
+  <si>
+    <t>Penetración de mercado</t>
+  </si>
+  <si>
+    <t>Desarrollo de producto</t>
+  </si>
+  <si>
+    <t>Desarrollo de mercado</t>
+  </si>
+  <si>
+    <t>Diversificación</t>
+  </si>
+  <si>
+    <t>Que es publicidad</t>
+  </si>
+  <si>
+    <t>Publicidad exterior</t>
+  </si>
+  <si>
+    <t>Publicidad en vallas y carteleras</t>
+  </si>
+  <si>
+    <t>Publicidad en medios impresos y masivos</t>
+  </si>
+  <si>
+    <t>Publiciad directa</t>
+  </si>
+  <si>
+    <t>Publiciad de mano en mano</t>
+  </si>
+  <si>
+    <t>Publicidad de boca en boca</t>
+  </si>
+  <si>
+    <t>Realizacion de promociones</t>
+  </si>
+  <si>
+    <t>Definicion</t>
+  </si>
+  <si>
+    <t>Tipos de promociones</t>
+  </si>
+  <si>
+    <t>publiciad en el punto de venta</t>
+  </si>
+  <si>
+    <t>Bonificaciones y cupones de descuento</t>
+  </si>
+  <si>
+    <t>Muestras</t>
+  </si>
+  <si>
+    <t>Ofertas</t>
+  </si>
+  <si>
+    <t>Concursos</t>
+  </si>
+  <si>
+    <t>Catálogos</t>
+  </si>
+  <si>
+    <t>Publicidad tradicional</t>
+  </si>
+  <si>
+    <t>Publicidad en internet</t>
+  </si>
+  <si>
+    <t>Tipo de Publicidad en internet</t>
+  </si>
+  <si>
+    <t>Paginas Wéb</t>
+  </si>
+  <si>
+    <t>Captar clientes potenciales</t>
+  </si>
+  <si>
+    <t>https://www.zendesk.com.mx/blog/como-incrementar-las-ventas/</t>
+  </si>
+  <si>
+    <t>Capítulo III - Definición sobre desarrollo de aplicaciones web y móviles</t>
+  </si>
+  <si>
+    <t>Qué es una estrategia</t>
+  </si>
+  <si>
+    <t>Tipos de estrategias para expansión de mercado</t>
+  </si>
+  <si>
+    <t>Desarrollo de una aplicación web y móvil para la gestión de ventas en linea en tienda de ropa Niche</t>
+  </si>
+  <si>
+    <t>https://www.strappinc.com/blog/strapp-datos/que-es-una-aplicacion-web</t>
+  </si>
+  <si>
+    <t>Tipos de aplicaciones web</t>
+  </si>
+  <si>
+    <t>Aplicación web estática</t>
+  </si>
+  <si>
+    <t>Aplicación web dinámica</t>
+  </si>
+  <si>
+    <t>Portal web app</t>
+  </si>
+  <si>
+    <t>Aplicaciones web con gestor de contenido</t>
+  </si>
+  <si>
+    <t>https://profile.es/blog/desarrollo-aplicaciones-web/#Desarrollo_de_aplicaciones_web</t>
+  </si>
+  <si>
+    <t>https://axarnet.es/blog/web-apps</t>
+  </si>
+  <si>
+    <t>Aplicaciones PWA</t>
+  </si>
+  <si>
+    <t>Qué es una aplicación de software</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Desarrollo de software</t>
+  </si>
+  <si>
+    <t>Tipos de aplicaciones de software</t>
+  </si>
+  <si>
+    <t>Aplicaciones de escritorio</t>
+  </si>
+  <si>
+    <t>Aplicaciones web</t>
+  </si>
+  <si>
+    <t>Aplicaciones móviles</t>
+  </si>
+  <si>
+    <t>Aplicaciones de dispositivos nativas</t>
+  </si>
+  <si>
+    <t>Ventajas de las aplicaciones web</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-Q7otM6OgnA</t>
+  </si>
+  <si>
+    <t>WordPress</t>
+  </si>
+  <si>
+    <t>Drupal</t>
+  </si>
+  <si>
+    <t>Tienda virtual</t>
+  </si>
+  <si>
+    <t>Aplicaciones nativas</t>
+  </si>
+  <si>
+    <t>Aplicaciones híbridas</t>
+  </si>
+  <si>
+    <t>Tipos de aplicaciones móviles</t>
+  </si>
+  <si>
+    <t>https://cuatroochenta.com/cuales-son-los-tipos-de-aplicaciones/</t>
+  </si>
+  <si>
+    <t>https://profile.es/blog/tipos-aplicaciones-moviles-ventajas-ejemplos/</t>
+  </si>
+  <si>
+    <t>Metodologías de desarrollo de Software</t>
+  </si>
+  <si>
+    <t>Agiles</t>
+  </si>
+  <si>
+    <t>https://postgradoingenieria.com/que-son-aplicaciones-web/#:~:text=Las%20aplicaciones%20web%20se%20han,la%20web%20a%20cualquier%20dispositivo.</t>
+  </si>
+  <si>
+    <t>Cascada</t>
+  </si>
+  <si>
+    <t>Prototyping</t>
+  </si>
+  <si>
+    <t>Espiral</t>
+  </si>
+  <si>
+    <t>Incremental</t>
+  </si>
+  <si>
+    <t>RAD</t>
+  </si>
+  <si>
+    <t>Rup</t>
+  </si>
+  <si>
+    <t>Formales / tradicionales</t>
+  </si>
+  <si>
+    <t>https://repositorio.uca.edu.ar/bitstream/123456789/522/1/metodologias-desarrollo-software.pdf</t>
+  </si>
+  <si>
+    <t>Programación Extrema</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Kanban</t>
+  </si>
+  <si>
+    <t>https://www.crehana.com/bo/blog/desarrollo-web/aplicacion-web-que-es/</t>
+  </si>
+  <si>
+    <t>EXTRAS</t>
+  </si>
+  <si>
+    <t>https://digibuo.uniovi.es/dspace/bitstream/handle/10651/32457/TFMMlJGarciaRodriguezRUO.pdf?sequence=6&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>Metodología Scrum</t>
+  </si>
+  <si>
+    <t>Roles del equipo</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>Scrum Master</t>
+  </si>
+  <si>
+    <t>Equipo de desarrollo</t>
+  </si>
+  <si>
+    <t>https://www.wearemarketing.com/es/blog/metodologia-scrum-que-es-y-como-funciona.html</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>Daily Meeting</t>
+  </si>
+  <si>
+    <t>Sprint review</t>
+  </si>
+  <si>
+    <t>Sprint retrospective</t>
+  </si>
+  <si>
+    <t>Herramientas</t>
+  </si>
+  <si>
+    <t>Procesos</t>
+  </si>
+  <si>
+    <t>Product backlog</t>
+  </si>
+  <si>
+    <t>Sprint backlog</t>
+  </si>
+  <si>
+    <t>Tecnologías backend a emplear</t>
+  </si>
+  <si>
+    <t>Asp.net MVC</t>
+  </si>
+  <si>
+    <t>Asp.net core</t>
+  </si>
+  <si>
+    <t>Tipos de bases de datos</t>
+  </si>
+  <si>
+    <t>Bases de datos</t>
+  </si>
+  <si>
+    <t>definicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relacionales </t>
+  </si>
+  <si>
+    <t>No Relacionales</t>
+  </si>
+  <si>
+    <t>Tipos de bases de datos relacionales</t>
+  </si>
+  <si>
+    <t>Tipos de bases de datos no relacionales</t>
+  </si>
+  <si>
+    <t>Tecnologías backend para desarrollo de aplicaciones</t>
+  </si>
+  <si>
+    <t>Lenguajes de programación</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Sql Server</t>
+  </si>
+  <si>
+    <t>My Sql</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Tecnologías fronted para desarrollo de aplicaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías para desarrollo de aplicaciones móviles</t>
+  </si>
+  <si>
+    <t>Ionic</t>
+  </si>
+  <si>
+    <t>React Native</t>
+  </si>
+  <si>
+    <t>Xamarin</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>1.1.</t>
+  </si>
+  <si>
+    <t>1.1.2.</t>
+  </si>
+  <si>
+    <t>1.1.3.</t>
+  </si>
+  <si>
+    <t>1.1.1.</t>
+  </si>
+  <si>
+    <t>1.2.4.</t>
+  </si>
+  <si>
+    <t>1.1.4.</t>
+  </si>
+  <si>
+    <t>1.1.5.</t>
+  </si>
+  <si>
+    <t>1.1.6.</t>
+  </si>
+  <si>
+    <t>1.1.7.</t>
+  </si>
+  <si>
+    <t>1.2.</t>
+  </si>
+  <si>
+    <t>1.2.3.2.</t>
+  </si>
+  <si>
+    <t>1.2.1.</t>
+  </si>
+  <si>
+    <t>1.2.2.</t>
+  </si>
+  <si>
+    <t>1.2.3.</t>
+  </si>
+  <si>
+    <t>1.2.3.1.</t>
+  </si>
+  <si>
+    <t>1.2.3.3.</t>
+  </si>
+  <si>
+    <t>1.2.3.4.</t>
+  </si>
+  <si>
+    <t>1.2.3.6.</t>
+  </si>
+  <si>
+    <t>1.2.3.5.</t>
+  </si>
+  <si>
+    <t>1.2.3.7.</t>
+  </si>
+  <si>
+    <t>1.2.3.8.</t>
+  </si>
+  <si>
+    <t>1.2.3.9.</t>
+  </si>
+  <si>
+    <t>1.2.4.1.</t>
+  </si>
+  <si>
+    <t>1.2.4.2.</t>
+  </si>
+  <si>
+    <t>1.2.4.3.</t>
+  </si>
+  <si>
+    <t>1.2.5.</t>
+  </si>
+  <si>
+    <t>1.2.5.1.</t>
+  </si>
+  <si>
+    <t>1.2.5.2.</t>
+  </si>
+  <si>
+    <t>1.2.5.3.</t>
+  </si>
+  <si>
+    <t>1.2.5.4.</t>
+  </si>
+  <si>
+    <t>1.2.5.5.</t>
+  </si>
+  <si>
+    <t>1.2.5.6.</t>
+  </si>
+  <si>
+    <t>1.3.2.</t>
+  </si>
+  <si>
+    <t>1.3.1.</t>
+  </si>
+  <si>
+    <t>1.3.</t>
+  </si>
+  <si>
+    <t>1.3.3.</t>
+  </si>
+  <si>
+    <t>1.3.4.</t>
+  </si>
+  <si>
+    <t>1.3.4.2.</t>
+  </si>
+  <si>
+    <t>1.3.4.1.</t>
+  </si>
+  <si>
+    <t>1.3.4.3.</t>
+  </si>
+  <si>
+    <t>1.3.4.4.</t>
+  </si>
+  <si>
+    <t>1.3.5.</t>
+  </si>
+  <si>
+    <t>1.3.6.</t>
+  </si>
+  <si>
+    <t>1.3.7.</t>
+  </si>
+  <si>
+    <t>1.3.7.1.</t>
+  </si>
+  <si>
+    <t>1.3.7.2.</t>
+  </si>
+  <si>
+    <t>1.3.7.3.</t>
+  </si>
+  <si>
+    <t>1.3.7.4.</t>
+  </si>
+  <si>
+    <t>1.3.7.5.</t>
+  </si>
+  <si>
+    <t>1.3.7.6.</t>
+  </si>
+  <si>
+    <t>1.4.</t>
+  </si>
+  <si>
+    <t>1.4.1.</t>
+  </si>
+  <si>
+    <t>1.4.2.</t>
+  </si>
+  <si>
+    <t>1.4.3.</t>
+  </si>
+  <si>
+    <t>1.4.4.</t>
+  </si>
+  <si>
+    <t>1.4.5.</t>
+  </si>
+  <si>
+    <t>1.4.5.1.</t>
+  </si>
+  <si>
+    <t>1.4.5.2.</t>
+  </si>
+  <si>
+    <t>1.4.5.3.</t>
+  </si>
+  <si>
+    <t>1.4.5.4.</t>
+  </si>
+  <si>
+    <t>1.4.6.</t>
+  </si>
+  <si>
+    <t>1.4.6.1.</t>
+  </si>
+  <si>
+    <t>1.4.6.2.</t>
+  </si>
+  <si>
+    <t>1.4.6.3.</t>
+  </si>
+  <si>
+    <t>1.4.6.4.</t>
+  </si>
+  <si>
+    <t>1.4.6.5.</t>
+  </si>
+  <si>
+    <t>1.4.6.6.</t>
+  </si>
+  <si>
+    <t>1.4.6.7.</t>
+  </si>
+  <si>
+    <t>1.4.6.8.</t>
+  </si>
+  <si>
+    <t>1.4.7.</t>
+  </si>
+  <si>
+    <t>1.4.7.1.</t>
+  </si>
+  <si>
+    <t>1.4.7.2.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>2.1.</t>
+  </si>
+  <si>
+    <t>2.1.1.</t>
+  </si>
+  <si>
+    <t>2.2.</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>2.3.</t>
+  </si>
+  <si>
+    <t>2.3.2.</t>
+  </si>
+  <si>
+    <t>2.3.1.</t>
+  </si>
+  <si>
+    <t>2.3.2.1.</t>
+  </si>
+  <si>
+    <t>2.3.2.2.</t>
+  </si>
+  <si>
+    <t>2.3.2.3.</t>
+  </si>
+  <si>
+    <t>2.3.2.4.</t>
+  </si>
+  <si>
+    <t>2.3.2.5.</t>
+  </si>
+  <si>
+    <t>2.4.</t>
+  </si>
+  <si>
+    <t>2.4.1.</t>
+  </si>
+  <si>
+    <t>2.4.2.</t>
+  </si>
+  <si>
+    <t>2.4.3.</t>
+  </si>
+  <si>
+    <t>2.4.3.1.</t>
+  </si>
+  <si>
+    <t>2.4.3.2.</t>
+  </si>
+  <si>
+    <t>2.4.4.</t>
+  </si>
+  <si>
+    <t>2.4.5.</t>
+  </si>
+  <si>
+    <t>2.5.</t>
+  </si>
+  <si>
+    <t>2.6.</t>
+  </si>
+  <si>
+    <t>2.6.1.</t>
+  </si>
+  <si>
+    <t>2.6.2.</t>
+  </si>
+  <si>
+    <t>2.7.</t>
+  </si>
+  <si>
+    <t>2.7.1.</t>
+  </si>
+  <si>
+    <t>2.7.1.1.</t>
+  </si>
+  <si>
+    <t>2.7.1.2.</t>
+  </si>
+  <si>
+    <t>2.7.1.3.</t>
+  </si>
+  <si>
+    <t>2.7.1.4.</t>
+  </si>
+  <si>
+    <t>2.7.1.5.</t>
+  </si>
+  <si>
+    <t>2.7.1.6.</t>
+  </si>
+  <si>
+    <t>2.7.2.</t>
+  </si>
+  <si>
+    <t>2.7.2.1.</t>
+  </si>
+  <si>
+    <t>2.7.2.2.</t>
+  </si>
+  <si>
+    <t>2.7.2.3.</t>
+  </si>
+  <si>
+    <t>2.7.2.4.</t>
+  </si>
+  <si>
+    <t>2.8.</t>
+  </si>
+  <si>
+    <t>2.8.1.</t>
+  </si>
+  <si>
+    <t>2.8.1.1.</t>
+  </si>
+  <si>
+    <t>2.8.1.2.</t>
+  </si>
+  <si>
+    <t>2.8.1.3.</t>
+  </si>
+  <si>
+    <t>2.8.2.</t>
+  </si>
+  <si>
+    <t>2.8.2.1.</t>
+  </si>
+  <si>
+    <t>2.8.2.2.</t>
+  </si>
+  <si>
+    <t>2.8.2.3.</t>
+  </si>
+  <si>
+    <t>2.8.2.4.</t>
+  </si>
+  <si>
+    <t>2.8.2.5.</t>
+  </si>
+  <si>
+    <t>2.8.3.</t>
+  </si>
+  <si>
+    <t>2.8.3.1.</t>
+  </si>
+  <si>
+    <t>2.8.3.2.</t>
+  </si>
+  <si>
+    <t>2.9.</t>
+  </si>
+  <si>
+    <t>2.9.1.</t>
+  </si>
+  <si>
+    <t>2.9.2.</t>
+  </si>
+  <si>
+    <t>2.9.2.1.</t>
+  </si>
+  <si>
+    <t>2.9.2.2.</t>
+  </si>
+  <si>
+    <t>2.10.</t>
+  </si>
+  <si>
+    <t>2.10.1.</t>
+  </si>
+  <si>
+    <t>2.10.2.</t>
+  </si>
+  <si>
+    <t>2.10.3.</t>
+  </si>
+  <si>
+    <t>2.10.4.</t>
+  </si>
+  <si>
+    <t>2.11.</t>
+  </si>
+  <si>
+    <t>2.11.1</t>
+  </si>
+  <si>
+    <t>2.12.</t>
+  </si>
+  <si>
+    <t>2.12.1.</t>
+  </si>
+  <si>
+    <t>2.12.2.</t>
+  </si>
+  <si>
+    <t>2.13.2.</t>
+  </si>
+  <si>
+    <t>2.13.</t>
+  </si>
+  <si>
+    <t>2.13.1.</t>
+  </si>
+  <si>
+    <t>2.13.3.</t>
+  </si>
+  <si>
+    <t>2.14.</t>
+  </si>
+  <si>
+    <t>2.14.1.</t>
+  </si>
+  <si>
+    <t>2.14.2.</t>
+  </si>
+  <si>
+    <t>2.14.3.</t>
+  </si>
+  <si>
+    <t>https://redhistoria.com/breve-historia-de-la-venta-y-los-vendedores/#:~:text=Podr%C3%ADa%20decirse%20que%20el%20origen,hac%C3%ADa%20falta%20con%20otros%20humanos.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,13 +1070,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,59 +1404,1838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92035BB4-4169-4D4D-BF97-B0E3E61C2DF1}">
-  <dimension ref="B4:H10"/>
+  <dimension ref="A1:S150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="J39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="J43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="J46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D49" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D50" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D51" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D52" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="J55" t="s">
+        <v>58</v>
+      </c>
+      <c r="O55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D58" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D59" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D60" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D61" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D62" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D64" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D74" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="D92" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="D93" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="6"/>
+      <c r="D102" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E102" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="6"/>
+      <c r="D103" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="6"/>
+      <c r="D104" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="D105" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="6"/>
+      <c r="D106" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E106" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="6"/>
+      <c r="D107" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D108" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="6"/>
+      <c r="D109" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="6"/>
+      <c r="D110" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="6"/>
+      <c r="D111" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="6"/>
+      <c r="D112" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="D119" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="6"/>
+      <c r="D122" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="6"/>
+      <c r="D123" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="6"/>
+      <c r="D125" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="6"/>
+      <c r="D126" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="6"/>
+      <c r="D131" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="6"/>
+      <c r="C134" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D138" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D141" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D144" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="6"/>
+      <c r="C145" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="6"/>
+      <c r="C146" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
+      <c r="C150" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J28" r:id="rId1" xr:uid="{970CC680-CF0D-4561-AC7A-E5895C962FED}"/>
+    <hyperlink ref="J37" r:id="rId2" xr:uid="{E9039A44-B60A-4B1D-BDFD-D798781C1619}"/>
+    <hyperlink ref="J54" r:id="rId3" xr:uid="{1D969E3C-7E19-4FED-8815-5B572A9C997E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2 A75" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD97BA9-1A12-4030-B4D1-68889B502778}">
+  <dimension ref="A1:W79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" t="s">
+        <v>120</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="W27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="W28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="W29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="L56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="M57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="M58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>160</v>
+      </c>
+      <c r="N59" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>1</v>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="N61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{E1D8BA18-7B8E-40E0-A5A9-4F02A1DD0A5C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/TESIS/3. Marco Teórico/Indice tentativo.xlsx
+++ b/TESIS/3. Marco Teórico/Indice tentativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\Universidad\1. Proyecto de graduación I\TESIS\3. Marco Teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3869AFAE-3B0B-445D-B18F-57B386C4BB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7348FD-1D22-4794-A2EA-E412C95B67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="367">
   <si>
     <t>Tienda de Ropa Niche</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Incremento de ventas</t>
   </si>
   <si>
-    <t>Que es incremento</t>
-  </si>
-  <si>
     <t>Definición de incremento de ventas</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>Expansión de Mercado</t>
   </si>
   <si>
-    <t>https://diccionarioactual.com/expansion/</t>
-  </si>
-  <si>
     <t>https://economipedia.com/definiciones/mercado.html</t>
   </si>
   <si>
@@ -245,27 +239,9 @@
     <t>Que es publicidad</t>
   </si>
   <si>
-    <t>Publicidad exterior</t>
-  </si>
-  <si>
-    <t>Publicidad en vallas y carteleras</t>
-  </si>
-  <si>
-    <t>Publicidad en medios impresos y masivos</t>
-  </si>
-  <si>
-    <t>Publiciad directa</t>
-  </si>
-  <si>
-    <t>Publiciad de mano en mano</t>
-  </si>
-  <si>
     <t>Publicidad de boca en boca</t>
   </si>
   <si>
-    <t>Realizacion de promociones</t>
-  </si>
-  <si>
     <t>Definicion</t>
   </si>
   <si>
@@ -290,9 +266,6 @@
     <t>Catálogos</t>
   </si>
   <si>
-    <t>Publicidad tradicional</t>
-  </si>
-  <si>
     <t>Publicidad en internet</t>
   </si>
   <si>
@@ -1014,6 +987,156 @@
   </si>
   <si>
     <t>https://redhistoria.com/breve-historia-de-la-venta-y-los-vendedores/#:~:text=Podr%C3%ADa%20decirse%20que%20el%20origen,hac%C3%ADa%20falta%20con%20otros%20humanos.</t>
+  </si>
+  <si>
+    <t>https://www.gestiopolis.com/venta-directa-venta-indirecta-y-sistemas-de-distribucion-que-son/</t>
+  </si>
+  <si>
+    <t>https://elviajedelcliente.com/venta-cruzada-que-es/</t>
+  </si>
+  <si>
+    <t>No agregado</t>
+  </si>
+  <si>
+    <t>agregado</t>
+  </si>
+  <si>
+    <t>https://www.rdstation.com/es/blog/inbound-vs-outbound-sales/#:~:text=El%20Inbound%20sales%20(o%20ventas,enviados%20al%20equipo%20de%20ventas.</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.es/es-revista-offarm-4-pdf-13102418</t>
+  </si>
+  <si>
+    <t>https://www.elsevier.es/es-revista-offarm-4-articulo-promocion-comunicacion-importancia-venta-personal-13102418#:~:text=La%20venta%20personal%20es%20un,oral%20entre%20vendedor%20y%20comprador.</t>
+  </si>
+  <si>
+    <t>https://rockcontent.com/es/blog/marketplace/</t>
+  </si>
+  <si>
+    <t>http://diposit.ub.edu/dspace/bitstream/2445/51104/1/memoria.pdf</t>
+  </si>
+  <si>
+    <t>pag16</t>
+  </si>
+  <si>
+    <t>https://es.shopify.com/blog/ecommerce-y-redes-sociales</t>
+  </si>
+  <si>
+    <t>https://blog.saleslayer.com/es/tipos-de-tienda-online</t>
+  </si>
+  <si>
+    <t>https://www.economiasimple.net/glosario/c2b</t>
+  </si>
+  <si>
+    <t>https://www.spri.eus/euskadinnova/es/enpresa-digitala/publicaciones/business-administration/1131.aspx</t>
+  </si>
+  <si>
+    <t>https://www.doofinder.com/es/blog/que-es-e-commerce</t>
+  </si>
+  <si>
+    <t>Definición de incremento</t>
+  </si>
+  <si>
+    <t>http://www.eco.uva.es/firmaelectronica/res/firma_electronica.pdf</t>
+  </si>
+  <si>
+    <t>Promociones de ventas</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/promocion-de-ventas.html</t>
+  </si>
+  <si>
+    <t>Formas de realizar promociones</t>
+  </si>
+  <si>
+    <t>Promocion en precio</t>
+  </si>
+  <si>
+    <t>Promocion en cantidad</t>
+  </si>
+  <si>
+    <t>Promocion en servicio posventa</t>
+  </si>
+  <si>
+    <t>Promocion de duracion</t>
+  </si>
+  <si>
+    <t>https://blog.citytroops.com/es/publicidad-en-lugar-de-venta/</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/bonificacion.html</t>
+  </si>
+  <si>
+    <t>https://www.promonegocios.net/oferta/definicion-oferta.html</t>
+  </si>
+  <si>
+    <t>https://www.merca20.com/que-son-las-muestras-promocionales-conoce-estos-7-tipos/</t>
+  </si>
+  <si>
+    <t>Tipos de Muestras</t>
+  </si>
+  <si>
+    <t>Muestra Cruzada</t>
+  </si>
+  <si>
+    <t>Muestra Directa</t>
+  </si>
+  <si>
+    <t>https://www.informabtl.com/que-es-una-promocion-cruzada-funcionan/#:~:text=Las%20practicas%20de%20promoci%C3%B3n%20cruzada&amp;text=Es%20cuando%20en%20las%20tiendas,otro%20marca%20que%20est%C3%A1%20aliado.&amp;text=Por%20ejemplo%20cuando%20se%20regalan,consume%20una%20marca%20en%20especial.</t>
+  </si>
+  <si>
+    <t>Muestra Distribuida en tienda</t>
+  </si>
+  <si>
+    <t>https://www.definicionabc.com/economia/expansion.php</t>
+  </si>
+  <si>
+    <t>Comprador</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/vendedor.html</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/comprador.html</t>
+  </si>
+  <si>
+    <t>https://www.bbva.es/finanzas-vistazo/ef/empresas/expansion-diversificacion.html</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/desarrollo-nuevo-producto.html</t>
+  </si>
+  <si>
+    <t>https://www.zendesk.com.mx/blog/desarrollo-de-mercado/#:~:text=desarrollo%20de%20mercado-,%C2%BFQu%C3%A9%20es%20desarrollo%20de%20mercado%3F,los%20que%20act%C3%BAa%20en%20general.</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/publicidad.html</t>
+  </si>
+  <si>
+    <t>Publicidad en televisión</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/pdf/158/15825078.pdf</t>
+  </si>
+  <si>
+    <t>Publicidad en radio</t>
+  </si>
+  <si>
+    <t>https://zizer.es/blog/campanas-de-publicidad-en-radio-sector-salud/</t>
+  </si>
+  <si>
+    <t>Publicidad impresa</t>
+  </si>
+  <si>
+    <t>https://economipedia.com/definiciones/publicidad-impresa.html</t>
+  </si>
+  <si>
+    <t>https://rockcontent.com/es/blog/marketing-boca-a-boca/</t>
+  </si>
+  <si>
+    <t>https://www.cyberclick.es/que-es/publicidad-en-internet</t>
   </si>
 </sst>
 </file>
@@ -1053,12 +1176,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1074,7 +1209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1087,6 +1222,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1404,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92035BB4-4169-4D4D-BF97-B0E3E61C2DF1}">
-  <dimension ref="A1:S150"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,23 +1587,31 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
+      <c r="L2" s="10"/>
+      <c r="M2" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
+      <c r="L3" s="8"/>
+      <c r="M3" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1461,7 +1619,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -1469,7 +1627,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C6" s="6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1477,7 +1635,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1485,7 +1643,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -1493,7 +1651,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -1501,26 +1659,29 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
       <c r="B11" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1530,102 +1691,162 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D18" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
       <c r="D20" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="6" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" t="s">
+        <v>322</v>
+      </c>
+      <c r="O22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C24" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1634,1125 +1855,1450 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="6" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" t="s">
+        <v>325</v>
+      </c>
+      <c r="P27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E32" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
+        <v>332</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C38" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="J43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="D36" t="s">
-        <v>42</v>
-      </c>
-      <c r="J36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D45" t="s">
+        <v>334</v>
+      </c>
+      <c r="J45" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C46" s="6"/>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>336</v>
+      </c>
+      <c r="J51" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C39" s="6" t="s">
+      <c r="E52" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D40" s="6" t="s">
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" s="8"/>
+      <c r="J53" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D41" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D42" s="6" t="s">
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D60" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="E42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="6" t="s">
+      <c r="E60" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D61" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E43" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C44" s="6" t="s">
+      <c r="E61" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D44" t="s">
-        <v>54</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="C62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D45" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="8"/>
+      <c r="E65" t="s">
+        <v>351</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="8"/>
+      <c r="E66" t="s">
+        <v>352</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D67" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C68" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" t="s">
+        <v>83</v>
+      </c>
+      <c r="J69" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E71" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" t="s">
+        <v>64</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D73" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E73" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="D75" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E75" t="s">
+        <v>359</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="D76" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E76" t="s">
+        <v>361</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" t="s">
+        <v>363</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="D78" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D80" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D81" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D83" t="s">
         <v>77</v>
       </c>
-      <c r="J46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E47" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D85" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E85" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D49" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D50" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D51" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D54" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C55" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" t="s">
-        <v>61</v>
-      </c>
-      <c r="J55" t="s">
-        <v>58</v>
-      </c>
-      <c r="O55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C56" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C58" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D58" t="s">
-        <v>92</v>
-      </c>
-      <c r="J58" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D59" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" s="3"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D63" t="s">
-        <v>68</v>
-      </c>
-      <c r="J63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D64" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E64" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E66" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="6" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E67" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="6" t="s">
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E68" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D69" s="6" t="s">
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E69" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D71" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D73" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D74" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C80" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-      <c r="D83" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E83" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="D84" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="D85" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="D86" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-      <c r="D87" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="E87" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="D90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D91" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="D94" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E95" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="D92" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="D93" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E93" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D94" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C96" t="s">
-        <v>111</v>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="D96" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E96" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C97" t="s">
-        <v>118</v>
+      <c r="B97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E97" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
-      <c r="C98" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D98" t="s">
-        <v>116</v>
+      <c r="D98" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E98" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" t="s">
-        <v>117</v>
+      <c r="B99" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C100" t="s">
-        <v>121</v>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
-      <c r="D102" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E102" t="s">
-        <v>124</v>
+      <c r="C102" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D102" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="D103" s="6" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E103" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="D104" s="6" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E104" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
-      <c r="D105" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E105" t="s">
-        <v>127</v>
+      <c r="C105" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D105" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
-      <c r="D106" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E106" t="s">
-        <v>128</v>
+      <c r="C106" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D106" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-      <c r="D107" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E107" t="s">
-        <v>129</v>
+      <c r="B107" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D108" t="s">
-        <v>122</v>
+      <c r="B108" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
-      <c r="D109" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E109" t="s">
-        <v>132</v>
+      <c r="C109" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
-      <c r="D110" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="E110" t="s">
-        <v>133</v>
+      <c r="C110" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-      <c r="D111" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="E111" t="s">
-        <v>134</v>
+      <c r="B111" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C111" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
-      <c r="D112" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E112" t="s">
-        <v>135</v>
+      <c r="C112" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D112" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C113" t="s">
-        <v>139</v>
+      <c r="B113" s="6"/>
+      <c r="D113" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E113" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
-      <c r="C114" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D114" t="s">
-        <v>140</v>
+      <c r="D114" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E114" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E115" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="E116" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="E117" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
-      <c r="C118" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D118" t="s">
-        <v>151</v>
+      <c r="D118" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E118" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
-      <c r="D119" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E119" t="s">
-        <v>145</v>
+      <c r="C119" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D119" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="D120" s="6" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E120" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="E122" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="D123" s="6" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="E123" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-      <c r="C124" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D124" t="s">
-        <v>150</v>
+      <c r="B124" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C124" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
-      <c r="D125" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="E125" t="s">
-        <v>152</v>
+      <c r="C125" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D125" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="E126" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C127" t="s">
-        <v>158</v>
+      <c r="B127" s="6"/>
+      <c r="D127" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E127" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
-      <c r="C128" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D128" t="s">
-        <v>159</v>
+      <c r="D128" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E128" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D129" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="E130" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E131" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C132" t="s">
-        <v>162</v>
+      <c r="B132" s="6"/>
+      <c r="D132" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E132" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
-      <c r="C133" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D133" t="s">
-        <v>167</v>
+      <c r="D133" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
-      <c r="C134" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D134" t="s">
-        <v>168</v>
+      <c r="D134" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E134" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="6" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="D135" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
-      <c r="C136" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D136" t="s">
-        <v>171</v>
+      <c r="D136" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C137" t="s">
-        <v>163</v>
+      <c r="B137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D138" t="s">
-        <v>170</v>
+      <c r="B138" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C138" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="C139" t="s">
-        <v>164</v>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D139" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="6" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="D140" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
-      <c r="C141" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D141" t="s">
-        <v>165</v>
+      <c r="D141" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E141" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
-      <c r="C142" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D142" t="s">
-        <v>166</v>
+      <c r="D142" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E142" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="6" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="6" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="D145" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="6" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D146" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="C147" t="s">
-        <v>173</v>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D147" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-      <c r="C148" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D148" t="s">
-        <v>174</v>
+      <c r="B148" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="6" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D149" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-      <c r="C150" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D150" t="s">
-        <v>176</v>
+      <c r="B150" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="6"/>
+      <c r="C151" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D151" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="6"/>
+      <c r="C152" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="6"/>
+      <c r="C153" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C154" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="6"/>
+      <c r="C155" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="6"/>
+      <c r="C156" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="6"/>
+      <c r="C157" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C158" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="6"/>
+      <c r="C159" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D159" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="6"/>
+      <c r="C160" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D160" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="6"/>
+      <c r="C161" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D161" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J28" r:id="rId1" xr:uid="{970CC680-CF0D-4561-AC7A-E5895C962FED}"/>
-    <hyperlink ref="J37" r:id="rId2" xr:uid="{E9039A44-B60A-4B1D-BDFD-D798781C1619}"/>
-    <hyperlink ref="J54" r:id="rId3" xr:uid="{1D969E3C-7E19-4FED-8815-5B572A9C997E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2 A75" numberStoredAsText="1"/>
+    <ignoredError sqref="A2 A86" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2769,7 +3315,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2791,12 +3337,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2806,7 +3352,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2816,7 +3362,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2826,300 +3372,300 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O26" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="W27" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="W28" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="W29" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I42" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M57" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M58" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="N59" t="s">
         <v>2</v>
@@ -3127,15 +3673,15 @@
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="M60" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="N61" t="s">
         <v>2</v>
@@ -3143,92 +3689,92 @@
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/TESIS/3. Marco Teórico/Indice tentativo.xlsx
+++ b/TESIS/3. Marco Teórico/Indice tentativo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\Universidad\1. Proyecto de graduación I\TESIS\3. Marco Teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7348FD-1D22-4794-A2EA-E412C95B67B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9BE3E-EDA6-4DA1-8FF6-31FB8E9555AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
   <si>
     <t>Tienda de Ropa Niche</t>
   </si>
@@ -779,27 +779,9 @@
     <t>2.3.</t>
   </si>
   <si>
-    <t>2.3.2.</t>
-  </si>
-  <si>
     <t>2.3.1.</t>
   </si>
   <si>
-    <t>2.3.2.1.</t>
-  </si>
-  <si>
-    <t>2.3.2.2.</t>
-  </si>
-  <si>
-    <t>2.3.2.3.</t>
-  </si>
-  <si>
-    <t>2.3.2.4.</t>
-  </si>
-  <si>
-    <t>2.3.2.5.</t>
-  </si>
-  <si>
     <t>2.4.</t>
   </si>
   <si>
@@ -1137,6 +1119,99 @@
   </si>
   <si>
     <t>https://www.cyberclick.es/que-es/publicidad-en-internet</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/es-es/topics/software-development</t>
+  </si>
+  <si>
+    <t>Ciclo de vide del software</t>
+  </si>
+  <si>
+    <t>Toma de requerimientos</t>
+  </si>
+  <si>
+    <t>https://www.northware.mx/blog/tecnicas-efectivas-para-la-toma-de-requerimientos/</t>
+  </si>
+  <si>
+    <t>Planeamiento</t>
+  </si>
+  <si>
+    <t>https://www.certus.edu.pe/blog/consiste-desarrollo-software/</t>
+  </si>
+  <si>
+    <t>Tipos de desarrollo de software</t>
+  </si>
+  <si>
+    <t>Software del sistema</t>
+  </si>
+  <si>
+    <t>Software de programación</t>
+  </si>
+  <si>
+    <t>https://www.universidadviu.com/es/actualidad/nuestros-expertos/los-tipos-de-software-y-sus-diferencias-que-debemos-conocer</t>
+  </si>
+  <si>
+    <t>https://velneo.es/software-de-programacion/</t>
+  </si>
+  <si>
+    <t>Software de aplicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño </t>
+  </si>
+  <si>
+    <t>pressman</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>https://www.guru99.com/software-testing-introduction-importance.html</t>
+  </si>
+  <si>
+    <t>Implementacion</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>https://www.captio.net/blog/errores-comunes-implementacion-software</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Angeles-Riesco/publication/267196110_Analisis_Diseno_y_Mantenimiento_del_Software/links/54be17e50cf218da9391d6ec/Analisis-Diseno-y-Mantenimiento-del-Software.pdf</t>
+  </si>
+  <si>
+    <t>Tipos de software de aplicación</t>
+  </si>
+  <si>
+    <t>https://fp.uoc.fje.edu/blog/conoce-los-diferentes-tipos-de-software-de-aplicacion/</t>
+  </si>
+  <si>
+    <t>tesis, garcia garcia</t>
+  </si>
+  <si>
+    <t>Aplicación Híbrida</t>
+  </si>
+  <si>
+    <t>https://www.xpertosolutions.com/x/noticia/item/que-es-una-aplicacion-movil</t>
+  </si>
+  <si>
+    <t>Aplicación nativa</t>
+  </si>
+  <si>
+    <t>https://www.xataka.com/basics/que-es-una-aplicacion-web-progresiva-o-pwa</t>
+  </si>
+  <si>
+    <t>https://repositorio.unican.es/xmlui/bitstream/handle/10902/17089/420138.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>https://profile.es/blog/desarrollo-aplicaciones-web/</t>
+  </si>
+  <si>
+    <t>https://openwebinars.net/blog/paginas-web-estaticas-vs-paginas-web-dinamicas/</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1238,6 +1313,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1554,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92035BB4-4169-4D4D-BF97-B0E3E61C2DF1}">
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:S174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1675,7 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1606,7 +1687,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1700,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1740,7 +1821,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1756,7 +1837,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1781,7 +1862,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1797,7 +1878,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1829,10 +1910,10 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="O22" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1868,7 +1949,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1884,7 +1965,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -1900,10 +1981,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -1931,7 +2012,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1965,7 +2046,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -1982,7 +2063,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1999,7 +2080,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2025,7 +2106,7 @@
         <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -2101,7 +2182,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2149,10 +2230,10 @@
         <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J45" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2165,7 +2246,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2174,7 +2255,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -2183,7 +2264,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -2192,7 +2273,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -2202,7 +2283,7 @@
         <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
@@ -2221,7 +2302,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2236,7 +2317,7 @@
       </c>
       <c r="I53" s="8"/>
       <c r="J53" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2252,7 +2333,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -2269,12 +2350,12 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="13" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2283,12 +2364,12 @@
       <c r="C57" s="8"/>
       <c r="D57" s="14"/>
       <c r="E57" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2297,12 +2378,12 @@
       <c r="C58" s="8"/>
       <c r="D58" s="14"/>
       <c r="E58" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2311,12 +2392,12 @@
       <c r="C59" s="8"/>
       <c r="D59" s="14"/>
       <c r="E59" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -2355,7 +2436,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -2383,12 +2464,12 @@
       <c r="C65" s="14"/>
       <c r="D65" s="8"/>
       <c r="E65" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2397,12 +2478,12 @@
       <c r="C66" s="14"/>
       <c r="D66" s="8"/>
       <c r="E66" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2413,7 +2494,7 @@
         <v>60</v>
       </c>
       <c r="J67" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2466,7 +2547,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2482,7 +2563,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,7 +2587,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2516,12 +2597,12 @@
         <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2531,12 +2612,12 @@
         <v>231</v>
       </c>
       <c r="E76" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2547,12 +2628,12 @@
         <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2567,7 +2648,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2583,7 +2664,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2591,17 +2672,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D81" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D82" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C83" s="6" t="s">
         <v>238</v>
       </c>
@@ -2609,7 +2690,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D84" s="6" t="s">
         <v>239</v>
       </c>
@@ -2617,7 +2698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D85" s="6" t="s">
         <v>240</v>
       </c>
@@ -2625,7 +2706,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>241</v>
       </c>
@@ -2633,24 +2714,28 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="8"/>
       <c r="B89" s="6" t="s">
         <v>244</v>
       </c>
@@ -2658,639 +2743,826 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="8"/>
+      <c r="B90" s="14"/>
       <c r="C90" s="6" t="s">
         <v>245</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="8"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="8"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" t="s">
+        <v>363</v>
+      </c>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="8"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" t="s">
+        <v>365</v>
+      </c>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="8"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" t="s">
+        <v>373</v>
+      </c>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="8"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="8"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="8"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="8"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="8"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H103" s="8"/>
+      <c r="I103" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="8"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="H104" s="8"/>
+      <c r="I104" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="6"/>
+      <c r="C105" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="8"/>
+      <c r="D106" t="s">
+        <v>98</v>
+      </c>
+      <c r="G106" s="8"/>
+      <c r="H106" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="8"/>
+      <c r="D107" t="s">
+        <v>387</v>
+      </c>
+      <c r="G107" s="8"/>
+      <c r="H107" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="8"/>
+      <c r="D108" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" s="8"/>
+      <c r="H108" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="8"/>
+      <c r="D109" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109" s="8"/>
+      <c r="H109" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+      <c r="B110" s="14"/>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+      <c r="B111" s="14"/>
+      <c r="D111" t="s">
+        <v>385</v>
+      </c>
+      <c r="G111" s="8"/>
+      <c r="H111" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="D94" s="6" t="s">
+      <c r="C112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="D95" s="6" t="s">
+      <c r="D113" t="s">
+        <v>87</v>
+      </c>
+      <c r="H113" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="D96" s="6" t="s">
+      <c r="D114" t="s">
+        <v>88</v>
+      </c>
+      <c r="H114" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="D97" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="D98" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E98" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="D115" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="D103" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E103" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-      <c r="D104" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E104" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D105" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D106" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="C108" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D109" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D110" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C111" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D112" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-      <c r="D113" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="E113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-      <c r="D114" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E114" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-      <c r="D115" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E115" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="E116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="E117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
-      <c r="D118" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D119" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
-      <c r="D120" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="E120" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
-      <c r="D121" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E121" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
-      <c r="D122" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-      <c r="D123" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E123" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+      <c r="C123" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="E126" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="D127" s="6" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="D128" s="6" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E128" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
-      <c r="C129" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D129" t="s">
-        <v>142</v>
+      <c r="D129" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E129" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="E130" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E131" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
-      <c r="D132" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E132" t="s">
-        <v>138</v>
+      <c r="C132" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D132" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
-      <c r="C135" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D135" t="s">
-        <v>141</v>
+      <c r="D135" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E135" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="E136" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-      <c r="D137" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E137" t="s">
-        <v>144</v>
+      <c r="B137" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C138" t="s">
-        <v>149</v>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
-      <c r="C139" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D139" t="s">
-        <v>150</v>
+      <c r="D139" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E139" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
-      <c r="C140" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D140" t="s">
-        <v>148</v>
+      <c r="D140" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E140" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="D141" s="6" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
-      <c r="D142" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E142" t="s">
-        <v>152</v>
+      <c r="C142" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D142" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C143" t="s">
-        <v>153</v>
+      <c r="B143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E143" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
-      <c r="C144" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
-      <c r="C145" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D145" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
-      <c r="C146" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D146" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
-      <c r="C147" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D147" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C148" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
-      <c r="C149" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C150" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-      <c r="C151" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D151" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E149" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="6"/>
+      <c r="D150" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E150" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C151" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="6" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D152" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C154" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="6"/>
+      <c r="D154" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E154" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
-      <c r="C155" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D155" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-      <c r="C156" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D156" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E155" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="6" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D157" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B158" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C158" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="6"/>
+      <c r="C158" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="6" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D159" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="D160" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="6"/>
+      <c r="C162" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D162" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C163" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="6"/>
+      <c r="C164" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D164" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="6"/>
+      <c r="C165" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D165" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="6"/>
+      <c r="C166" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D166" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C167" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="6"/>
+      <c r="C168" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D168" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="6"/>
+      <c r="C169" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="6"/>
+      <c r="C170" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C171" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="6"/>
+      <c r="C172" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D172" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D173" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-      <c r="C161" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D161" t="s">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D174" t="s">
         <v>167</v>
       </c>
     </row>

--- a/TESIS/3. Marco Teórico/Indice tentativo.xlsx
+++ b/TESIS/3. Marco Teórico/Indice tentativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\Universidad\1. Proyecto de graduación I\TESIS\3. Marco Teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB9BE3E-EDA6-4DA1-8FF6-31FB8E9555AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD18BEA-CBA1-4470-A397-7010C59839C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="402">
   <si>
     <t>Tienda de Ropa Niche</t>
   </si>
@@ -1212,6 +1212,36 @@
   </si>
   <si>
     <t>https://openwebinars.net/blog/paginas-web-estaticas-vs-paginas-web-dinamicas/</t>
+  </si>
+  <si>
+    <t>Joomla</t>
+  </si>
+  <si>
+    <t>2.4.3.3</t>
+  </si>
+  <si>
+    <t>https://www.lucushost.com/blog/gestor-de-contenidos/</t>
+  </si>
+  <si>
+    <t>https://rockcontent.com/es/blog/tienda-virtual/</t>
+  </si>
+  <si>
+    <t>https://info.netcommerce.mx/funcionan-los-portales-web/</t>
+  </si>
+  <si>
+    <t>https://www.ecorfan.org/bolivia/researchjournals/Tecnologia_e_innovacion/vol2num5/Tecnologia_e_Innovacion_Vol2_Num5_6.pdf</t>
+  </si>
+  <si>
+    <t>Ciclo de vida o Cascada</t>
+  </si>
+  <si>
+    <t>Prototipos</t>
+  </si>
+  <si>
+    <t>Tipos de metodologías de software</t>
+  </si>
+  <si>
+    <t>https://www.ionos.es/digitalguide/paginas-web/desarrollo-web/el-modelo-en-cascada/?</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92035BB4-4169-4D4D-BF97-B0E3E61C2DF1}">
-  <dimension ref="A1:S174"/>
+  <dimension ref="A1:S177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H115" sqref="H115"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3005,512 +3035,550 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+      <c r="B113" s="14"/>
       <c r="C113" s="6" t="s">
         <v>249</v>
       </c>
       <c r="D113" t="s">
         <v>87</v>
       </c>
+      <c r="G113" s="8"/>
       <c r="H113" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+      <c r="B114" s="14"/>
       <c r="C114" s="6" t="s">
         <v>250</v>
       </c>
       <c r="D114" t="s">
         <v>88</v>
       </c>
+      <c r="G114" s="8"/>
       <c r="H114" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+      <c r="B115" s="14"/>
       <c r="C115" s="6" t="s">
         <v>251</v>
       </c>
       <c r="D115" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H115" s="8"/>
+      <c r="I115" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
-      <c r="D116" s="6" t="s">
+      <c r="C116" s="10"/>
+      <c r="D116" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
-      <c r="D117" s="6" t="s">
+      <c r="C117" s="10"/>
+      <c r="D117" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E118" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
-      <c r="C118" s="6" t="s">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="8"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6" t="s">
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="8"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="9" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="9"/>
-      <c r="C122" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>107</v>
-      </c>
+      <c r="D122" s="10"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
       <c r="C123" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D124" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C125" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="8"/>
+      <c r="B126" s="14"/>
+      <c r="D126" t="s">
+        <v>68</v>
+      </c>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="6"/>
+      <c r="C127" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="8"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D128" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-      <c r="D126" s="6" t="s">
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="8"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E126" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-      <c r="D127" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E127" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-      <c r="D128" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="E128" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-      <c r="D129" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="E129" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+      <c r="G129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="I129" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="D130" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E130" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="D131" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E131" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
-      <c r="C132" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D132" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D132" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E132" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="D133" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E133" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="D134" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E134" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
-      <c r="D135" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E135" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C135" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="D136" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E136" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C137" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
-      <c r="C138" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D138" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D138" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="D139" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E139" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C140" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="6"/>
+      <c r="D142" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E142" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-      <c r="D140" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E140" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
-      <c r="D141" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E141" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-      <c r="C142" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D142" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="D144" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E144" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
-      <c r="D145" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E145" t="s">
-        <v>138</v>
+      <c r="C145" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D145" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="D146" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E146" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="D147" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E147" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
-      <c r="C148" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D148" t="s">
-        <v>141</v>
+      <c r="D148" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E148" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="D149" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E149" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="D150" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E150" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C151" t="s">
-        <v>149</v>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D151" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
-      <c r="C152" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D152" t="s">
-        <v>150</v>
+      <c r="D152" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E152" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
-      <c r="C153" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D153" t="s">
-        <v>148</v>
+      <c r="D153" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E153" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-      <c r="D154" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E154" t="s">
-        <v>151</v>
+      <c r="B154" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C154" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
-      <c r="D155" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E155" t="s">
-        <v>152</v>
+      <c r="C155" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C156" t="s">
-        <v>153</v>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D156" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
-      <c r="C157" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D157" t="s">
-        <v>158</v>
+      <c r="D157" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E157" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
-      <c r="C158" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D158" t="s">
-        <v>159</v>
+      <c r="D158" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E158" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-      <c r="C159" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D159" t="s">
-        <v>160</v>
+      <c r="B159" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D160" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" t="s">
-        <v>154</v>
+      <c r="B161" s="6"/>
+      <c r="C161" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D161" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B163" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C163" t="s">
-        <v>155</v>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D163" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-      <c r="C164" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D164" t="s">
-        <v>68</v>
+      <c r="B164" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C164" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D165" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-      <c r="C166" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D166" t="s">
-        <v>157</v>
+      <c r="B166" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C166" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B167" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C167" t="s">
-        <v>163</v>
+      <c r="B167" s="6"/>
+      <c r="C167" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D167" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D168" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
@@ -3519,50 +3587,76 @@
         <v>302</v>
       </c>
       <c r="D169" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-      <c r="C170" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D170" t="s">
-        <v>157</v>
+      <c r="B170" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="C170" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B171" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C171" t="s">
-        <v>164</v>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D171" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D172" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D173" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D175" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="6"/>
+      <c r="C176" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D176" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-      <c r="C174" s="6" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="6"/>
+      <c r="C177" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D177" t="s">
         <v>167</v>
       </c>
     </row>

--- a/TESIS/3. Marco Teórico/Indice tentativo.xlsx
+++ b/TESIS/3. Marco Teórico/Indice tentativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleksander\Documents\Universidad\1. Proyecto de graduación I\TESIS\3. Marco Teórico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD18BEA-CBA1-4470-A397-7010C59839C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5318CC4-DCA7-4F55-9EAC-921B731585AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{E1B47254-E46F-4E91-966E-199DEFEE677F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="432">
   <si>
     <t>Tienda de Ropa Niche</t>
   </si>
@@ -935,39 +935,6 @@
     <t>2.11.1</t>
   </si>
   <si>
-    <t>2.12.</t>
-  </si>
-  <si>
-    <t>2.12.1.</t>
-  </si>
-  <si>
-    <t>2.12.2.</t>
-  </si>
-  <si>
-    <t>2.13.2.</t>
-  </si>
-  <si>
-    <t>2.13.</t>
-  </si>
-  <si>
-    <t>2.13.1.</t>
-  </si>
-  <si>
-    <t>2.13.3.</t>
-  </si>
-  <si>
-    <t>2.14.</t>
-  </si>
-  <si>
-    <t>2.14.1.</t>
-  </si>
-  <si>
-    <t>2.14.2.</t>
-  </si>
-  <si>
-    <t>2.14.3.</t>
-  </si>
-  <si>
     <t>https://redhistoria.com/breve-historia-de-la-venta-y-los-vendedores/#:~:text=Podr%C3%ADa%20decirse%20que%20el%20origen,hac%C3%ADa%20falta%20con%20otros%20humanos.</t>
   </si>
   <si>
@@ -1242,6 +1209,129 @@
   </si>
   <si>
     <t>https://www.ionos.es/digitalguide/paginas-web/desarrollo-web/el-modelo-en-cascada/?</t>
+  </si>
+  <si>
+    <t>http://materias.fi.uba.ar/7500/schenone-tesisdegradoingenieriainformatica.pdf</t>
+  </si>
+  <si>
+    <t>https://www.becas-santander.com/es/blog/metodologias-desarrollo-software.html#:~:text=Incremental%3A%20en%20esta%20metodolog%C3%ADa%20de,con%20el%20modelo%20en%20cascada.</t>
+  </si>
+  <si>
+    <t>https://www.incentro.com/es-ES/blog/metodologia-rad-desarrollo-rapido-aplicaciones</t>
+  </si>
+  <si>
+    <t>https://docplayer.es/53517173-Capitulo-5-proceso-unificado-rational-aplicado.html</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Harry-Vite-Cevallos/publication/327537074_Metodologias_agiles_frente_a_las_tradicionales_en_el_proceso_de_desarrollo_de_software/links/5b942061a6fdccfd542a2b13/Metodologias-agiles-frente-a-las-tradicionales-en-el-proceso-de-desarrollo-de-software.pdf</t>
+  </si>
+  <si>
+    <t>https://www.redalyc.org/pdf/4962/496250736004.pdf</t>
+  </si>
+  <si>
+    <t>https://www.bbva.com/es/que-es-un-product-backlog-y-cual-es-su-funcion/</t>
+  </si>
+  <si>
+    <t>https://ittude.com.ar/b/scrum/que-es-el-sprint-backlog/</t>
+  </si>
+  <si>
+    <t>https://openwebinars.net/blog/que-es-un-sprint-scrum/</t>
+  </si>
+  <si>
+    <t>https://ittude.com.ar/b/scrum/que-es-el-sprint-planning/</t>
+  </si>
+  <si>
+    <t>https://ittude.com.ar/b/scrum/que-es-la-daily-scrum/</t>
+  </si>
+  <si>
+    <t>https://www.crehana.com/blog/diseno-productos/sprint-reviews/</t>
+  </si>
+  <si>
+    <t>https://ittude.com.ar/b/scrum/retrospectiva/</t>
+  </si>
+  <si>
+    <t>https://books.google.es/books?hl=es&amp;lr=&amp;id=Vhum351T-K8C&amp;oi=fnd&amp;pg=PR17&amp;dq=bases+de+datos&amp;ots=fAL6MXd54l&amp;sig=xc_d97UHcP1cP9AsD2VNAIkzWdU#v=onepage&amp;q=bases%20de%20datos&amp;f=false</t>
+  </si>
+  <si>
+    <t>https://www.oracle.com/ar/database/what-is-a-relational-database/</t>
+  </si>
+  <si>
+    <t>https://muytecnologicos.com/diccionario-tecnologico/base-de-datos-relacional#abh_posts</t>
+  </si>
+  <si>
+    <t>https://www.ionos.es/digitalguide/hosting/cuestiones-tecnicas/oracle-database/</t>
+  </si>
+  <si>
+    <t>https://www.hostinger.es/tutoriales/que-es-mysql#Base_de_datos</t>
+  </si>
+  <si>
+    <t>https://intelequia.com/blog/post/2948/qu%C3%A9-es-microsoft-sql-server-y-para-qu%C3%A9-sirve</t>
+  </si>
+  <si>
+    <t>https://aukera.es/blog/bases-de-datos-relacionales-vs-no-relacionales/</t>
+  </si>
+  <si>
+    <t>https://openwebinars.net/blog/que-es-mongodb/</t>
+  </si>
+  <si>
+    <t>Redis</t>
+  </si>
+  <si>
+    <t>https://blog.bi-geek.com/redis-para-principiantes/</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>https://openwebinars.net/blog/que-es-c-introduccion/</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>https://rockcontent.com/es/blog/que-es-java/</t>
+  </si>
+  <si>
+    <t>https://soyrafaramos.com/que-es-javascript-para-que-sirve/</t>
+  </si>
+  <si>
+    <t>Asp.net mvc</t>
+  </si>
+  <si>
+    <t>https://openwebinars.net/blog/que-es-aspnet-y-cuales-son-sus-puntos-fuertes/</t>
+  </si>
+  <si>
+    <t>Lenguajes de progra seleccionados para la app</t>
+  </si>
+  <si>
+    <t>https://ed.team/blog/que-puedes-hacer-con-c</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/aspnet/mvc/overview/older-versions-1/overview/asp-net-mvc-overview</t>
+  </si>
+  <si>
+    <t>javascrip</t>
+  </si>
+  <si>
+    <t>ionic</t>
+  </si>
+  <si>
+    <t>https://profile.es/blog/que-es-ionic/</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/es/docs/Web/HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css  </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/es/docs/Web/CSS</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1350,6 +1440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1665,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92035BB4-4169-4D4D-BF97-B0E3E61C2DF1}">
-  <dimension ref="A1:S177"/>
+  <dimension ref="A1:S182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1796,7 @@
       </c>
       <c r="L2" s="10"/>
       <c r="M2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1717,7 +1808,7 @@
       </c>
       <c r="L3" s="8"/>
       <c r="M3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1811,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1851,7 +1942,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1867,7 +1958,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1892,7 +1983,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1908,7 +1999,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1940,10 +2031,10 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="O22" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -1979,7 +2070,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1995,7 +2086,7 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -2011,10 +2102,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="P27" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -2042,7 +2133,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -2076,7 +2167,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -2093,7 +2184,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2110,7 +2201,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2136,7 +2227,7 @@
         <v>202</v>
       </c>
       <c r="D36" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
@@ -2212,7 +2303,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2260,10 +2351,10 @@
         <v>211</v>
       </c>
       <c r="D45" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J45" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2276,7 +2367,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
@@ -2285,7 +2376,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -2294,7 +2385,7 @@
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -2303,7 +2394,7 @@
       <c r="C50" s="9"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -2313,7 +2404,7 @@
         <v>212</v>
       </c>
       <c r="D51" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
@@ -2332,7 +2423,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2347,7 +2438,7 @@
       </c>
       <c r="I53" s="8"/>
       <c r="J53" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2363,7 +2454,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -2380,12 +2471,12 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
       <c r="J55" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D56" s="13" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2394,12 +2485,12 @@
       <c r="C57" s="8"/>
       <c r="D57" s="14"/>
       <c r="E57" s="12" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
       <c r="J57" s="12" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2408,12 +2499,12 @@
       <c r="C58" s="8"/>
       <c r="D58" s="14"/>
       <c r="E58" s="12" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
       <c r="J58" s="12" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2422,12 +2513,12 @@
       <c r="C59" s="8"/>
       <c r="D59" s="14"/>
       <c r="E59" s="12" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
       <c r="J59" s="12" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -2466,7 +2557,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
       <c r="J63" s="3" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -2494,12 +2585,12 @@
       <c r="C65" s="14"/>
       <c r="D65" s="8"/>
       <c r="E65" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
       <c r="J65" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,12 +2599,12 @@
       <c r="C66" s="14"/>
       <c r="D66" s="8"/>
       <c r="E66" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
       <c r="J66" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -2524,7 +2615,7 @@
         <v>60</v>
       </c>
       <c r="J67" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2577,7 +2668,7 @@
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
       <c r="J71" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,7 +2684,7 @@
       <c r="H72" s="8"/>
       <c r="I72" s="8"/>
       <c r="J72" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -2617,7 +2708,7 @@
       <c r="H74" s="8"/>
       <c r="I74" s="8"/>
       <c r="J74" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -2627,12 +2718,12 @@
         <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
       <c r="J75" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -2642,12 +2733,12 @@
         <v>231</v>
       </c>
       <c r="E76" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
       <c r="J76" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -2658,12 +2749,12 @@
         <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="H77" s="8"/>
       <c r="I77" s="8"/>
       <c r="J77" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -2678,7 +2769,7 @@
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -2694,7 +2785,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -2785,7 +2876,7 @@
       <c r="G90" s="8"/>
       <c r="H90" s="8"/>
       <c r="I90" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,7 +2905,7 @@
       <c r="A93" s="8"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2822,12 +2913,12 @@
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2835,12 +2926,12 @@
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="G95" s="8"/>
       <c r="H95" s="8"/>
       <c r="I95" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -2848,12 +2939,12 @@
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8"/>
       <c r="I96" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2861,12 +2952,12 @@
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
       <c r="D97" s="12" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2874,12 +2965,12 @@
       <c r="B98" s="14"/>
       <c r="C98" s="14"/>
       <c r="D98" s="12" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8"/>
       <c r="I98" s="12" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2887,12 +2978,12 @@
       <c r="B99" s="14"/>
       <c r="C99" s="14"/>
       <c r="D99" s="12" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
       <c r="I99" s="12" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2900,18 +2991,18 @@
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
       <c r="D100" s="12" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
       <c r="I100" s="12" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="11"/>
       <c r="C101" s="16" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2919,11 +3010,11 @@
       <c r="B102" s="14"/>
       <c r="C102" s="14"/>
       <c r="D102" s="12" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H102" s="8"/>
       <c r="I102" s="12" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2931,11 +3022,11 @@
       <c r="B103" s="14"/>
       <c r="C103" s="14"/>
       <c r="D103" s="12" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H103" s="8"/>
       <c r="I103" s="12" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2943,17 +3034,17 @@
       <c r="B104" s="14"/>
       <c r="C104" s="14"/>
       <c r="D104" s="12" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H104" s="8"/>
       <c r="I104" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,7 +3056,7 @@
       </c>
       <c r="G106" s="8"/>
       <c r="H106" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -2973,11 +3064,11 @@
       <c r="B107" s="14"/>
       <c r="C107" s="8"/>
       <c r="D107" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -2989,7 +3080,7 @@
       </c>
       <c r="G108" s="8"/>
       <c r="H108" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3001,7 +3092,7 @@
       </c>
       <c r="G109" s="8"/>
       <c r="H109" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,14 +3104,14 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="14"/>
       <c r="D111" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" t="s">
@@ -3046,7 +3137,7 @@
       </c>
       <c r="G113" s="8"/>
       <c r="H113" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -3060,7 +3151,7 @@
       </c>
       <c r="G114" s="8"/>
       <c r="H114" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -3074,7 +3165,7 @@
       </c>
       <c r="H115" s="8"/>
       <c r="I115" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -3094,14 +3185,14 @@
         <v>253</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="10"/>
       <c r="D118" s="9" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>105</v>
@@ -3119,7 +3210,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -3134,7 +3225,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -3195,13 +3286,13 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
       <c r="I126" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -3227,102 +3318,165 @@
         <v>262</v>
       </c>
       <c r="E129" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
       <c r="I129" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="8"/>
       <c r="D130" s="6" t="s">
         <v>263</v>
       </c>
       <c r="E130" t="s">
-        <v>399</v>
+        <v>388</v>
+      </c>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="8"/>
       <c r="D131" s="6" t="s">
         <v>264</v>
       </c>
       <c r="E131" t="s">
         <v>117</v>
       </c>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="14"/>
       <c r="D132" s="6" t="s">
         <v>265</v>
       </c>
       <c r="E132" t="s">
         <v>118</v>
       </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="14"/>
       <c r="D133" s="6" t="s">
         <v>266</v>
       </c>
       <c r="E133" t="s">
         <v>119</v>
       </c>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="14"/>
       <c r="D134" s="6" t="s">
         <v>267</v>
       </c>
       <c r="E134" t="s">
         <v>120</v>
       </c>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="6" t="s">
         <v>268</v>
       </c>
       <c r="D135" t="s">
         <v>113</v>
       </c>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="I135" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="14"/>
       <c r="D136" s="6" t="s">
         <v>269</v>
       </c>
       <c r="E136" t="s">
         <v>123</v>
       </c>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="14"/>
       <c r="D137" s="6" t="s">
         <v>270</v>
       </c>
       <c r="E137" t="s">
         <v>124</v>
       </c>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="14"/>
       <c r="D138" s="6" t="s">
         <v>271</v>
       </c>
       <c r="E138" t="s">
         <v>125</v>
       </c>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="14"/>
       <c r="D139" s="6" t="s">
         <v>272</v>
       </c>
       <c r="E139" t="s">
         <v>126</v>
+      </c>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -3343,33 +3497,48 @@
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="14"/>
       <c r="D142" s="6" t="s">
         <v>275</v>
       </c>
       <c r="E142" t="s">
         <v>132</v>
       </c>
+      <c r="G142" s="8"/>
+      <c r="H142" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="14"/>
       <c r="D143" s="6" t="s">
         <v>276</v>
       </c>
       <c r="E143" t="s">
         <v>133</v>
       </c>
+      <c r="G143" s="8"/>
+      <c r="H143" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B144" s="6"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="14"/>
       <c r="D144" s="6" t="s">
         <v>277</v>
       </c>
       <c r="E144" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G144" s="8"/>
+      <c r="H144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
         <v>278</v>
@@ -3378,52 +3547,77 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="8"/>
+      <c r="B146" s="14"/>
       <c r="D146" s="6" t="s">
         <v>279</v>
       </c>
       <c r="E146" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
+      <c r="G146" s="8"/>
+      <c r="H146" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="8"/>
+      <c r="B147" s="14"/>
       <c r="D147" s="6" t="s">
         <v>280</v>
       </c>
       <c r="E147" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
+      <c r="G147" s="8"/>
+      <c r="H147" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="8"/>
+      <c r="B148" s="14"/>
       <c r="D148" s="6" t="s">
         <v>281</v>
       </c>
       <c r="E148" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
+      <c r="G148" s="8"/>
+      <c r="H148" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="8"/>
+      <c r="B149" s="14"/>
       <c r="D149" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E149" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
+      <c r="G149" s="8"/>
+      <c r="H149" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="8"/>
+      <c r="B150" s="14"/>
       <c r="D150" s="6" t="s">
         <v>283</v>
       </c>
       <c r="E150" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G150" s="8"/>
+      <c r="H150" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="6" t="s">
         <v>284</v>
@@ -3432,25 +3626,37 @@
         <v>141</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A152" s="8"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="8"/>
       <c r="D152" s="6" t="s">
         <v>285</v>
       </c>
       <c r="E152" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
+      <c r="G152" s="8"/>
+      <c r="H152" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A153" s="8"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="8"/>
       <c r="D153" s="6" t="s">
         <v>286</v>
       </c>
       <c r="E153" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G153" s="8"/>
+      <c r="H153" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B154" s="6" t="s">
         <v>287</v>
       </c>
@@ -3458,7 +3664,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="6" t="s">
         <v>288</v>
@@ -3467,34 +3673,52 @@
         <v>150</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A156" s="8"/>
+      <c r="B156" s="14"/>
       <c r="C156" s="6" t="s">
         <v>289</v>
       </c>
       <c r="D156" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
+      <c r="G156" s="8"/>
+      <c r="H156" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="8"/>
+      <c r="B157" s="14"/>
       <c r="D157" s="6" t="s">
         <v>290</v>
       </c>
       <c r="E157" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
+      <c r="G157" s="8"/>
+      <c r="H157" t="s">
+        <v>405</v>
+      </c>
+      <c r="O157" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A158" s="8"/>
+      <c r="B158" s="14"/>
       <c r="D158" s="6" t="s">
         <v>291</v>
       </c>
       <c r="E158" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G158" s="8"/>
+      <c r="H158" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B159" s="6" t="s">
         <v>292</v>
       </c>
@@ -3502,34 +3726,49 @@
         <v>153</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A160" s="8"/>
+      <c r="B160" s="14"/>
       <c r="C160" s="6" t="s">
         <v>293</v>
       </c>
       <c r="D160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
+      <c r="G160" s="8"/>
+      <c r="H160" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="8"/>
+      <c r="B161" s="14"/>
       <c r="C161" s="6" t="s">
         <v>294</v>
       </c>
       <c r="D161" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B162" s="6"/>
+      <c r="G161" s="8"/>
+      <c r="H161" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="14"/>
       <c r="C162" s="6" t="s">
         <v>295</v>
       </c>
       <c r="D162" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="G162" s="8"/>
+      <c r="H162" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="6" t="s">
         <v>296</v>
@@ -3538,7 +3777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
         <v>297</v>
       </c>
@@ -3546,118 +3785,150 @@
         <v>154</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="14"/>
       <c r="C165" s="6" t="s">
         <v>298</v>
       </c>
       <c r="D165" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B166" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="C166" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="I165" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166" s="8"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="6"/>
+      <c r="D166" t="s">
+        <v>412</v>
+      </c>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
-      <c r="C167" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D167" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C167" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
-      <c r="C168" s="6" t="s">
-        <v>301</v>
-      </c>
+      <c r="C168" s="6"/>
       <c r="D168" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="F168" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
-      <c r="C169" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="C169" s="6"/>
       <c r="D169" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B170" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="C170" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+      <c r="F169" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" t="s">
+        <v>417</v>
+      </c>
+      <c r="F170" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
-      <c r="C171" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D171" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
-      <c r="C172" s="6" t="s">
-        <v>302</v>
-      </c>
+      <c r="C172" s="6"/>
       <c r="D172" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="F172" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
-      <c r="C173" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D173" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B174" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C174" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B174" s="6"/>
+      <c r="C174" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
-      <c r="C175" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="D175" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="F175" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
-      <c r="C176" s="6" t="s">
-        <v>308</v>
-      </c>
+      <c r="C176" s="6"/>
       <c r="D176" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="F176" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
-      <c r="C177" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D177" t="s">
-        <v>167</v>
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>426</v>
+      </c>
+      <c r="F179" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>428</v>
+      </c>
+      <c r="F181" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>430</v>
+      </c>
+      <c r="F182" t="s">
+        <v>431</v>
+      </c>
+      <c r="K182" s="17">
+        <v>44384</v>
       </c>
     </row>
   </sheetData>
